--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-01 20:03:58</t>
-  </si>
-  <si>
-    <t>2018-09-01 20:05:14</t>
+    <t>2018-09-01 22:40:03</t>
+  </si>
+  <si>
+    <t>2018-09-01 22:47:53</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>65秒</t>
+    <t>466秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -156,6 +156,451 @@
   </si>
   <si>
     <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_003_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_004_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_005_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_006_unusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test_007_overTimeVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
+    <t>test_008_consumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+订单类型
+</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>消费记录详情检查</t>
+  </si>
+  <si>
+    <t>test_009_consumeRecordDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录列表
+查看消费记录详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道名称
+停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+支付方式
+订单编号
+客服电话
+</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>新增车辆</t>
+  </si>
+  <si>
+    <t>test_010_myCarAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击新增车辆按钮
+点击省份
+选择省份
+输入车牌号-1
+输入车牌号-2
+输入车牌号-3
+输入车牌号-4
+输入车牌号-5
+输入车牌号-6
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+车牌号码
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>我的车辆列表</t>
+  </si>
+  <si>
+    <t>test_011_myCarList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>删除车辆-放弃删除</t>
+  </si>
+  <si>
+    <t>test_012_myCarDelCancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+放弃删除
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>删除车辆-删除成功</t>
+  </si>
+  <si>
+    <t>test_013_myCarDelSuccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>开门申请记录</t>
+  </si>
+  <si>
+    <t>test_014_myCarDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击开门申请
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门权限申请记录
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test_015_feedbackAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test_016_feedbackMore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t>test_017_feedbackDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看反馈记录
+点击某条记录
+点击删除
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>test_018_aboutUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
+</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>设置-账户安全</t>
+  </si>
+  <si>
+    <t>test_019_settingAccountSafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+账户安全设置
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号检查
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>设置-开门设置</t>
+  </si>
+  <si>
+    <t>test_020_settingOpenDoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+摇一摇开门设置
+开关
+开关
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开关
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>设置-常见问题</t>
+  </si>
+  <si>
+    <t>test_021_settingQuestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+常见问题
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见问题
 </t>
   </si>
 </sst>
@@ -336,7 +781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -692,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -751,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -804,31 +1249,9 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -845,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,22 +1365,22 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -970,22 +1393,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -998,22 +1421,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>18</v>
@@ -1026,22 +1449,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>18</v>
@@ -1054,22 +1477,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -1077,9 +1500,427 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-01 22:40:03</t>
-  </si>
-  <si>
-    <t>2018-09-01 22:47:53</t>
+    <t>2018-09-02 13:26:56</t>
+  </si>
+  <si>
+    <t>2018-09-02 13:35:25</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>466秒</t>
+    <t>499秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-02 13:26:56</t>
-  </si>
-  <si>
-    <t>2018-09-02 13:35:25</t>
+    <t>2018-09-02 22:00:28</t>
+  </si>
+  <si>
+    <t>2018-09-02 22:06:36</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>499秒</t>
+    <t>363秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -113,10 +113,10 @@
     <t>test001</t>
   </si>
   <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_001_loginJslifeApp</t>
+    <t>app-登录</t>
+  </si>
+  <si>
+    <t>test_executor</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -137,13 +137,7 @@
     <t>test002</t>
   </si>
   <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_002_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
+    <t>app-注册</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -159,42 +153,10 @@
 </t>
   </si>
   <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_003_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_004_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_005_myVoucher_detail</t>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -202,70 +164,19 @@
 输入密码
 点击登录按钮
 点击我的
-查看卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
-  </si>
-  <si>
-    <t>test006</t>
-  </si>
-  <si>
-    <t>未使用的卡券详情</t>
-  </si>
-  <si>
-    <t>test_006_unusedVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-未使用的卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
-</t>
-  </si>
-  <si>
-    <t>test007</t>
-  </si>
-  <si>
-    <t>已过期的卡券详情</t>
-  </si>
-  <si>
-    <t>test_007_overTimeVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-已过期的卡券列表
-已过期的卡券详情页面
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
 </t>
   </si>
   <si>
     <t>test008</t>
   </si>
   <si>
-    <t>消费记录</t>
-  </si>
-  <si>
-    <t>test_008_consumeRecord</t>
+    <t>消费记录-列表</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -289,10 +200,7 @@
     <t>test009</t>
   </si>
   <si>
-    <t>消费记录详情检查</t>
-  </si>
-  <si>
-    <t>test_009_consumeRecordDetail</t>
+    <t>消费记录-详情</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -317,13 +225,91 @@
 </t>
   </si>
   <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看反馈记录
+点击某条记录
+点击删除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.TextView[@text='反馈意见测试，请勿处理！'], 
+执行过程中失败，请检查元素是否存在//android.widget.TextView[@text='反馈意见测试，请勿处理！'], </t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
     <t>test010</t>
   </si>
   <si>
-    <t>新增车辆</t>
-  </si>
-  <si>
-    <t>test_010_myCarAdd</t>
+    <t>我的车辆-新增</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -350,35 +336,10 @@
 </t>
   </si>
   <si>
-    <t>test011</t>
-  </si>
-  <si>
-    <t>我的车辆列表</t>
-  </si>
-  <si>
-    <t>test_011_myCarList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击我的车辆
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">车牌号码
-</t>
-  </si>
-  <si>
     <t>test012</t>
   </si>
   <si>
-    <t>删除车辆-放弃删除</t>
-  </si>
-  <si>
-    <t>test_012_myCarDelCancel</t>
+    <t>我的车辆-放弃删除</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -392,13 +353,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
     <t>test013</t>
   </si>
   <si>
-    <t>删除车辆-删除成功</t>
-  </si>
-  <si>
-    <t>test_013_myCarDelSuccess</t>
+    <t>我的车辆-删除成功</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -411,204 +373,12 @@
 确定
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">提示信息
-</t>
-  </si>
-  <si>
-    <t>test014</t>
-  </si>
-  <si>
-    <t>开门申请记录</t>
-  </si>
-  <si>
-    <t>test_014_myCarDel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击开门申请
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开门权限申请记录
-</t>
-  </si>
-  <si>
-    <t>test015</t>
-  </si>
-  <si>
-    <t>意见反馈-新增</t>
-  </si>
-  <si>
-    <t>test_015_feedbackAdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-输入意见
-点击提交
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-检查是否退出菜单
-</t>
-  </si>
-  <si>
-    <t>test016</t>
-  </si>
-  <si>
-    <t>意见反馈-追问</t>
-  </si>
-  <si>
-    <t>test_016_feedbackMore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-查看意见反馈记录
-点击某条记录
-继续追问
-发送
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查是否发送成功
-</t>
-  </si>
-  <si>
-    <t>test017</t>
-  </si>
-  <si>
-    <t>意见反馈-删除</t>
-  </si>
-  <si>
-    <t>test_017_feedbackDel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-查看反馈记录
-点击某条记录
-点击删除
-</t>
-  </si>
-  <si>
-    <t>test018</t>
-  </si>
-  <si>
-    <t>关于我们</t>
-  </si>
-  <si>
-    <t>test_018_aboutUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-关于我们
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二维码
-APP简介
-</t>
-  </si>
-  <si>
-    <t>test019</t>
-  </si>
-  <si>
-    <t>设置-账户安全</t>
-  </si>
-  <si>
-    <t>test_019_settingAccountSafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-设置
-账户安全设置
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机号检查
-</t>
-  </si>
-  <si>
-    <t>test020</t>
-  </si>
-  <si>
-    <t>设置-开门设置</t>
-  </si>
-  <si>
-    <t>test_020_settingOpenDoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-设置
-摇一摇开门设置
-开关
-开关
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开关
-</t>
-  </si>
-  <si>
-    <t>test021</t>
-  </si>
-  <si>
-    <t>设置-常见问题</t>
-  </si>
-  <si>
-    <t>test_021_settingQuestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-设置
-常见问题
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常见问题
-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +426,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF4500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -698,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,6 +494,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,10 +562,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,6 +628,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="意见反馈-追问CheckPoint_8_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="3238500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1179,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1196,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1213,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -1249,10 +1073,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,16 +1195,16 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -1393,22 +1217,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -1421,22 +1245,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>18</v>
@@ -1449,22 +1273,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>18</v>
@@ -1477,22 +1301,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -1505,22 +1329,22 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
@@ -1528,55 +1352,56 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
+    <row r="10" spans="1:10" ht="110" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -1589,22 +1414,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>18</v>
@@ -1617,22 +1442,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>18</v>
@@ -1645,22 +1470,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>18</v>
@@ -1668,263 +1493,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1"/>
+    <row r="15" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-02 22:00:28</t>
-  </si>
-  <si>
-    <t>2018-09-02 22:06:36</t>
+    <t>2018-09-03 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-09-03 09:41:22</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>363秒</t>
+    <t>612秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>Meizu_m2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -116,7 +116,7 @@
     <t>app-登录</t>
   </si>
   <si>
-    <t>test_executor</t>
+    <t>test_001_loginJslifeApp</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>app-注册</t>
+  </si>
+  <si>
+    <t>test_002_register</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -153,10 +156,42 @@
 </t>
   </si>
   <si>
-    <t>test018</t>
-  </si>
-  <si>
-    <t>关于我们</t>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>test_003_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_004_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券-列表</t>
+  </si>
+  <si>
+    <t>test_005_myVoucher_detail</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -164,12 +199,60 @@
 输入密码
 点击登录按钮
 点击我的
-关于我们
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二维码
-APP简介
+查看卡券列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_006_unusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test_007_overTimeVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
 </t>
   </si>
   <si>
@@ -177,6 +260,9 @@
   </si>
   <si>
     <t>消费记录-列表</t>
+  </si>
+  <si>
+    <t>test_008_consumeRecord</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -201,6 +287,9 @@
   </si>
   <si>
     <t>消费记录-详情</t>
+  </si>
+  <si>
+    <t>test_009_consumeRecordDetail</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -225,91 +314,13 @@
 </t>
   </si>
   <si>
-    <t>test015</t>
-  </si>
-  <si>
-    <t>意见反馈-新增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-输入意见
-点击提交
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-检查是否退出菜单
-</t>
-  </si>
-  <si>
-    <t>test017</t>
-  </si>
-  <si>
-    <t>意见反馈-删除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-查看反馈记录
-点击某条记录
-点击删除
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-</t>
-  </si>
-  <si>
-    <t>test016</t>
-  </si>
-  <si>
-    <t>意见反馈-追问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-查看意见反馈记录
-点击某条记录
-继续追问
-发送
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查是否发送成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在//android.widget.TextView[@text='反馈意见测试，请勿处理！'], 
-执行过程中失败，请检查元素是否存在//android.widget.TextView[@text='反馈意见测试，请勿处理！'], </t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
     <t>test010</t>
   </si>
   <si>
     <t>我的车辆-新增</t>
+  </si>
+  <si>
+    <t>test_010_myCarAdd</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -336,10 +347,35 @@
 </t>
   </si>
   <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>我的车辆-列表</t>
+  </si>
+  <si>
+    <t>test_011_myCarList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
     <t>test012</t>
   </si>
   <si>
     <t>我的车辆-放弃删除</t>
+  </si>
+  <si>
+    <t>test_012_myCarDelCancel</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -353,14 +389,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">车牌号码
-</t>
-  </si>
-  <si>
     <t>test013</t>
   </si>
   <si>
     <t>我的车辆-删除成功</t>
+  </si>
+  <si>
+    <t>test_013_myCarDelSuccess</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -373,12 +408,204 @@
 确定
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>开门申请-记录</t>
+  </si>
+  <si>
+    <t>test_014_myCarDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击开门申请
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门权限申请记录
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test_015_feedbackAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test_016_feedbackMore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t>test_017_feedbackDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看反馈记录
+点击某条记录
+点击删除
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>test_018_aboutUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
+</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>设置-账户安全</t>
+  </si>
+  <si>
+    <t>test_019_settingAccountSafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+账户安全设置
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号检查
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>设置-开门设置</t>
+  </si>
+  <si>
+    <t>test_020_settingOpenDoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+摇一摇开门设置
+开关
+开关
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开关
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>设置-常见问题</t>
+  </si>
+  <si>
+    <t>test_021_settingQuestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+常见问题
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见问题
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,14 +653,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF4500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -476,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,9 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +778,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,49 +844,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="意见反馈-追问CheckPoint_8_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="3238500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1003,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1020,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1037,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -1073,10 +1246,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1195,16 +1368,16 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -1217,22 +1390,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -1245,22 +1418,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>18</v>
@@ -1273,22 +1446,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>18</v>
@@ -1301,22 +1474,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -1329,19 +1502,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>59</v>
@@ -1352,56 +1525,55 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="110" customHeight="1">
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -1414,22 +1586,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>18</v>
@@ -1442,22 +1614,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>18</v>
@@ -1470,22 +1642,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>18</v>
@@ -1493,12 +1665,263 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1"/>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-05 18:29:49</t>
-  </si>
-  <si>
-    <t>2018-09-05 18:32:29</t>
+    <t>2018-09-09 19:49:28</t>
+  </si>
+  <si>
+    <t>2018-09-09 19:50:19</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>156秒</t>
+    <t>41秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>Meizu_m2_android_5.1</t>
+    <t>asus_P023_android_5.1.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test014</t>
-  </si>
-  <si>
-    <t>开门申请-记录查询</t>
-  </si>
-  <si>
-    <t>test_014_openDoorRecord</t>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app-登录</t>
+  </si>
+  <si>
+    <t>test_executor</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -124,48 +124,21 @@
 输入密码
 点击登录按钮
 点击我的
-点击开门申请
 </t>
   </si>
   <si>
-    <t xml:space="preserve">开门权限申请记录
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
 </t>
-  </si>
-  <si>
-    <t>开门申请-记录</t>
-  </si>
-  <si>
-    <t>test_015_openDoorApplyAdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击开门申请
-填写申请
-业主手机号
-业主姓名
-与业主关系
-提交申请
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本人姓名
-业主本人不能申请
-</t>
-  </si>
-  <si>
-    <t>用例失败重连过一次，失败原因:==检查点_业主本人不能申请失败，请检查_//*[contains(@text, '业主本人不需要申请')]==
-==检查点_业主本人不能申请失败，请检查_//*[contains(@text, '业主本人不需要申请')]==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,15 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF98FB98"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF4500"/>
+      <color rgb="FF7CCD7C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,9 +246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -352,7 +314,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,49 +377,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="开门申请-记录CheckPoint_2_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="952500"/>
-          <a:ext cx="1028700" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -790,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -824,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -863,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -971,35 +890,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
@@ -1012,6 +903,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-09 19:49:28</t>
-  </si>
-  <si>
-    <t>2018-09-09 19:50:19</t>
+    <t>2018-09-09 20:08:28</t>
+  </si>
+  <si>
+    <t>2018-09-09 20:17:05</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>41秒</t>
+    <t>513秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -116,7 +116,7 @@
     <t>app-登录</t>
   </si>
   <si>
-    <t>test_executor</t>
+    <t>test001_loginTest</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -133,12 +133,487 @@
 卡券
 </t>
   </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>app-注册</t>
+  </si>
+  <si>
+    <t>test002_registerTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>test003_myBalanceTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test004_myVoucherTest</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券-列表</t>
+  </si>
+  <si>
+    <t>test005_myVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test006_unusedVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test007_overTimeVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>消费记录-列表</t>
+  </si>
+  <si>
+    <t>test008_consumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+订单类型
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:三楼测试--20171207
+==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:三楼测试--20171207</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>消费记录-详情</t>
+  </si>
+  <si>
+    <t>test009_consumeRecordDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录列表
+查看消费记录详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道名称
+停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+支付方式
+订单编号
+客服电话
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_parking_name, 
+执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_parking_name, </t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>我的车辆-新增</t>
+  </si>
+  <si>
+    <t>test010_myCarAddTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击新增车辆按钮
+点击省份
+选择省份
+输入车牌号-1
+输入车牌号-2
+输入车牌号-3
+输入车牌号-4
+输入车牌号-5
+输入车牌号-6
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+车牌号码
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>我的车辆-列表</t>
+  </si>
+  <si>
+    <t>test011_myCarTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>我的车辆-放弃删除</t>
+  </si>
+  <si>
+    <t>test012_myCarDelCancelTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+放弃删除
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>我的车辆-删除成功</t>
+  </si>
+  <si>
+    <t>test013_myCarDelSuccessTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>开门申请-记录</t>
+  </si>
+  <si>
+    <t>test014_openDoorApplyTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击开门申请
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门权限申请记录
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test015_feedbackAddTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test016_feedbackMoreTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t>test017_feedbackDelTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看反馈记录
+点击某条记录
+点击删除
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>test018_aboutUsTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
+</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>设置-账户安全</t>
+  </si>
+  <si>
+    <t>test019_settingAccountSafeTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+账户安全设置
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号检查
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>设置-开门设置</t>
+  </si>
+  <si>
+    <t>test020_settingOpenDoorTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+摇一摇开门设置
+开关
+开关
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开关
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>设置-常见问题</t>
+  </si>
+  <si>
+    <t>test021_settingQuestionTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+常见问题
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见问题
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +661,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF4500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +729,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -311,10 +797,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,6 +863,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="消费记录-列表CheckPoint_8_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="3238500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="消费记录-详情CheckPoint_9_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4629150"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -709,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -726,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -743,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -779,10 +1346,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,18 +1457,574 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="110" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="110" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-09 20:51:08</t>
-  </si>
-  <si>
-    <t>2018-09-09 20:51:59</t>
+    <t>2018-09-11 10:48:52</t>
+  </si>
+  <si>
+    <t>2018-09-11 10:59:12</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>47秒</t>
+    <t>600秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -155,12 +155,468 @@
     <t xml:space="preserve">提示已经被注册
 </t>
   </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>test003_myBalanceTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test004_myVoucherTest</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券-列表</t>
+  </si>
+  <si>
+    <t>test005_myVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券列表
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test006_unusedVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test007_overTimeVoucherDetailTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>消费记录-列表</t>
+  </si>
+  <si>
+    <t>test008_consumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+订单类型
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:三楼测试--20171207
+==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:三楼测试--20171207</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>消费记录-详情</t>
+  </si>
+  <si>
+    <t>test009_consumeRecordDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录列表
+查看消费记录详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道名称
+停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+支付方式
+订单编号
+客服电话
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_parking_name, 
+执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_parking_name, </t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>我的车辆-新增</t>
+  </si>
+  <si>
+    <t>test010_myCarAddTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击新增车辆按钮
+点击省份
+选择省份
+输入车牌号-1
+输入车牌号-2
+输入车牌号-3
+输入车牌号-4
+输入车牌号-5
+输入车牌号-6
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+车牌号码
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>我的车辆-列表</t>
+  </si>
+  <si>
+    <t>test011_myCarTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>我的车辆-放弃删除</t>
+  </si>
+  <si>
+    <t>test012_myCarDelCancelTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+放弃删除
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>我的车辆-删除成功</t>
+  </si>
+  <si>
+    <t>test013_myCarDelSuccessTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>开门申请-记录</t>
+  </si>
+  <si>
+    <t>test014_openDoorApplyTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击开门申请
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门权限申请记录
+</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test015_feedbackAddTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_提示信息失败，请检查_//*[contains(@text, '提交成功')]==</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test016_feedbackMoreTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
+  </si>
+  <si>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t>test017_feedbackDelTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看反馈记录
+点击某条记录
+点击删除
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>test018_aboutUsTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
+</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>设置-账户安全</t>
+  </si>
+  <si>
+    <t>test019_settingAccountSafeTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+账户安全设置
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号检查
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>设置-开门设置</t>
+  </si>
+  <si>
+    <t>test020_settingOpenDoorTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+摇一摇开门设置
+开关
+开关
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开关
+</t>
+  </si>
+  <si>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>设置-常见问题</t>
+  </si>
+  <si>
+    <t>test021_settingQuestionTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+设置
+常见问题
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常见问题
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +664,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF4500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +732,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -333,10 +800,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,6 +866,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="消费记录-列表CheckPoint_8_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="3238500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="消费记录-详情CheckPoint_9_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="4629150"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -731,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -748,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -765,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -801,10 +1349,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -940,17 +1488,548 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="110" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="110" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-11 15:44:43</t>
-  </si>
-  <si>
-    <t>2018-09-11 15:46:16</t>
+    <t>2018-09-21 10:24:59</t>
+  </si>
+  <si>
+    <t>2018-09-21 10:26:53</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>71秒</t>
+    <t>110秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>Meizu_m2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -124,6 +124,7 @@
 输入密码
 点击登录按钮
 点击我的
+向上滑屏
 设置
 消息设置
 </t>
@@ -133,8 +134,7 @@
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:开启后，系统将自动屏蔽22:00到第二天08:00的任何提醒
-==检查点_对比数据失败，当前取到到实际数据为:NoSuchElementError,期望数据为:开启后，系统将自动屏蔽22:00到第二天08:00的任何提醒</t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_user_page, </t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF4500"/>
+      <color rgb="FF7CCD7C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,10 +314,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,49 +380,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="设置-消息设置CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -772,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -789,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -825,10 +782,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -931,11 +888,12 @@
         <v>35</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
@@ -950,6 +908,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-21 10:24:59</t>
-  </si>
-  <si>
-    <t>2018-09-21 10:26:53</t>
+    <t>2018-09-25 15:03:12</t>
+  </si>
+  <si>
+    <t>2018-09-25 15:04:55</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>110秒</t>
+    <t>97秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test022</t>
-  </si>
-  <si>
-    <t>设置-消息设置</t>
-  </si>
-  <si>
-    <t>test022_settingMessageTest</t>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>设置-检查更新</t>
+  </si>
+  <si>
+    <t>test023_settingUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -126,15 +126,37 @@
 点击我的
 向上滑屏
 设置
-消息设置
+检查更新
 </t>
   </si>
   <si>
-    <t xml:space="preserve">消息设置
+    <t xml:space="preserve">版本检测
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_user_page, </t>
+    <t>test024</t>
+  </si>
+  <si>
+    <t>我的-个人信息</t>
+  </si>
+  <si>
+    <t>test024_personalInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击进入个人信息页
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">账号
+姓名
+昵称
+签名
+</t>
   </si>
 </sst>
 </file>
@@ -314,7 +336,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -712,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -729,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -782,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -890,12 +912,37 @@
       <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-25 15:03:12</t>
-  </si>
-  <si>
-    <t>2018-09-25 15:04:55</t>
+    <t>2018-09-25 16:13:11</t>
+  </si>
+  <si>
+    <t>2018-09-25 16:14:24</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>97秒</t>
+    <t>69秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,52 +110,30 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test023</t>
-  </si>
-  <si>
-    <t>设置-检查更新</t>
-  </si>
-  <si>
-    <t>test023_settingUpdate</t>
+    <t>test026</t>
+  </si>
+  <si>
+    <t>个人信息-还原姓名</t>
+  </si>
+  <si>
+    <t>test026_recoverUserName</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
 输入用户名
 输入密码
 点击登录按钮
-点击我的
-向上滑屏
-设置
-检查更新
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">版本检测
-</t>
-  </si>
-  <si>
-    <t>test024</t>
-  </si>
-  <si>
-    <t>我的-个人信息</t>
-  </si>
-  <si>
-    <t>test024_personalInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
+返回主界面
 点击我的
 点击进入个人信息页
+点击修改姓名
+修改姓名
+提交
+确认修改
 </t>
   </si>
   <si>
-    <t xml:space="preserve">账号
-姓名
-昵称
-签名
+    <t xml:space="preserve">姓名
 </t>
   </si>
 </sst>
@@ -336,7 +314,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -734,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -751,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -804,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -915,34 +893,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-25 16:13:11</t>
-  </si>
-  <si>
-    <t>2018-09-25 16:14:24</t>
+    <t>2018-09-27 17:25:57</t>
+  </si>
+  <si>
+    <t>2018-09-27 17:27:15</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>69秒</t>
+    <t>67秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>Meizu_m2_android_5.1</t>
+    <t>asus_P023_android_5.1.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,30 +110,52 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test026</t>
-  </si>
-  <si>
-    <t>个人信息-还原姓名</t>
-  </si>
-  <si>
-    <t>test026_recoverUserName</t>
+    <t>test033</t>
+  </si>
+  <si>
+    <t>微社区-申请开卡</t>
+  </si>
+  <si>
+    <t>test033_openCard</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
 输入用户名
 输入密码
 点击登录按钮
-返回主界面
-点击我的
-点击进入个人信息页
-点击修改姓名
-修改姓名
-提交
-确认修改
+点击选择社区
+选择社区
+点击微社区
+我的卡片
+申请开卡
+开卡数量
+开卡数量
 </t>
   </si>
   <si>
-    <t xml:space="preserve">姓名
+    <t xml:space="preserve">开卡数量
+提示信息
+</t>
+  </si>
+  <si>
+    <t>test034_cancelCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+我的卡片
+开卡记录
+取消开卡申请
+点击取消
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
 </t>
   </si>
 </sst>
@@ -314,7 +336,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -712,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -729,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -782,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -893,7 +915,34 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-27 17:25:57</t>
-  </si>
-  <si>
-    <t>2018-09-27 17:27:15</t>
+    <t>2018-09-27 19:04:34</t>
+  </si>
+  <si>
+    <t>2018-09-27 19:05:08</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>67秒</t>
+    <t>30秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,52 +110,26 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test033</t>
-  </si>
-  <si>
-    <t>微社区-申请开卡</t>
-  </si>
-  <si>
-    <t>test033_openCard</t>
+    <t>test057</t>
+  </si>
+  <si>
+    <t>微社区-社区公告</t>
+  </si>
+  <si>
+    <t>test057_communityVote</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
 输入用户名
 输入密码
 点击登录按钮
-点击选择社区
-选择社区
 点击微社区
-我的卡片
-申请开卡
-开卡数量
-开卡数量
+社区投票
 </t>
   </si>
   <si>
-    <t xml:space="preserve">开卡数量
-提示信息
-</t>
-  </si>
-  <si>
-    <t>test034_cancelCard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-我的卡片
-开卡记录
-取消开卡申请
-点击取消
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
+    <t xml:space="preserve">检查元素
+检查元素
 </t>
   </si>
 </sst>
@@ -336,7 +310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -734,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -751,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -804,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -915,34 +889,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-09-27 19:04:34</t>
-  </si>
-  <si>
-    <t>2018-09-27 19:05:08</t>
+    <t>2018-10-08 15:49:13</t>
+  </si>
+  <si>
+    <t>2018-10-08 15:54:56</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>30秒</t>
+    <t>339秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>Meizu_m2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,10 +110,153 @@
     <t>截图</t>
   </si>
   <si>
+    <t>test051</t>
+  </si>
+  <si>
+    <t>微社区</t>
+  </si>
+  <si>
+    <t>test051_miniCommunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击微社区
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的卡片
+</t>
+  </si>
+  <si>
+    <t>test052</t>
+  </si>
+  <si>
+    <t>微社区-我的卡片</t>
+  </si>
+  <si>
+    <t>test052_myCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+我的卡片
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门卡1
+门卡2
+</t>
+  </si>
+  <si>
+    <t>test053</t>
+  </si>
+  <si>
+    <t>微社区-申请开卡</t>
+  </si>
+  <si>
+    <t>test053_openCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+我的卡片
+申请开卡
+开卡数量
+开卡数量
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开卡数量
+提示信息
+</t>
+  </si>
+  <si>
+    <t>test054</t>
+  </si>
+  <si>
+    <t>test054_cancelCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+我的卡片
+开卡记录
+取消开卡申请
+点击取消
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test055</t>
+  </si>
+  <si>
+    <t>微社区-联系物管</t>
+  </si>
+  <si>
+    <t>test055_propertyPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+联系物管
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物业联系电话
+</t>
+  </si>
+  <si>
+    <t>test056</t>
+  </si>
+  <si>
+    <t>微社区-社区公告</t>
+  </si>
+  <si>
+    <t>test056_communityAnnouncements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击选择社区
+选择社区
+点击微社区
+社区公告
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查元素
+</t>
+  </si>
+  <si>
     <t>test057</t>
-  </si>
-  <si>
-    <t>微社区-社区公告</t>
   </si>
   <si>
     <t>test057_communityVote</t>
@@ -130,6 +273,18 @@
   <si>
     <t xml:space="preserve">检查元素
 检查元素
+</t>
+  </si>
+  <si>
+    <t>test058_myMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击微社区
+我的消息
 </t>
   </si>
 </sst>
@@ -310,7 +465,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -708,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -725,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -778,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -889,13 +1044,202 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Report/JslifeAppTestReport.xlsx
+++ b/Report/JslifeAppTestReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-10-08 15:49:13</t>
-  </si>
-  <si>
-    <t>2018-10-08 15:54:56</t>
+    <t>2018-10-20 14:24:31</t>
+  </si>
+  <si>
+    <t>2018-10-20 14:26:54</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>339秒</t>
+    <t>103秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>Meizu_m2_android_5.1</t>
+    <t>asus_P023_android_5.1.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,182 +110,32 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test051</t>
-  </si>
-  <si>
-    <t>微社区</t>
-  </si>
-  <si>
-    <t>test051_miniCommunity</t>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app-登录</t>
+  </si>
+  <si>
+    <t>test001_loginTest</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
 输入用户名
 输入密码
 点击登录按钮
-点击微社区
+点击我的
 </t>
   </si>
   <si>
-    <t xml:space="preserve">我的卡片
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
 </t>
   </si>
   <si>
-    <t>test052</t>
-  </si>
-  <si>
-    <t>微社区-我的卡片</t>
-  </si>
-  <si>
-    <t>test052_myCard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-我的卡片
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门卡1
-门卡2
-</t>
-  </si>
-  <si>
-    <t>test053</t>
-  </si>
-  <si>
-    <t>微社区-申请开卡</t>
-  </si>
-  <si>
-    <t>test053_openCard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-我的卡片
-申请开卡
-开卡数量
-开卡数量
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开卡数量
-提示信息
-</t>
-  </si>
-  <si>
-    <t>test054</t>
-  </si>
-  <si>
-    <t>test054_cancelCard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-我的卡片
-开卡记录
-取消开卡申请
-点击取消
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-</t>
-  </si>
-  <si>
-    <t>test055</t>
-  </si>
-  <si>
-    <t>微社区-联系物管</t>
-  </si>
-  <si>
-    <t>test055_propertyPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-联系物管
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物业联系电话
-</t>
-  </si>
-  <si>
-    <t>test056</t>
-  </si>
-  <si>
-    <t>微社区-社区公告</t>
-  </si>
-  <si>
-    <t>test056_communityAnnouncements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击选择社区
-选择社区
-点击微社区
-社区公告
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查元素
-</t>
-  </si>
-  <si>
-    <t>test057</t>
-  </si>
-  <si>
-    <t>test057_communityVote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击微社区
-社区投票
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查元素
-检查元素
-</t>
-  </si>
-  <si>
-    <t>test058_myMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击微社区
-我的消息
-</t>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_user_page, 
+执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/tv_user_page, </t>
   </si>
 </sst>
 </file>
@@ -335,7 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7CCD7C"/>
+      <color rgb="FFFF4500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,10 +315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,6 +381,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="app-登录CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -863,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -880,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -897,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -933,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1039,212 +932,25 @@
         <v>35</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+    <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>